--- a/Cashflows.xlsx
+++ b/Cashflows.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Antoine\Documents\Umbrella_Fund\Code_projects\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B39E40-5FD1-44B1-B227-4BAE99BC7A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE5FE7-08E4-4143-A357-6EBBA9B305A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CEA12E3A-1AF6-4A35-B18D-3931842FA1F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEA12E3A-1AF6-4A35-B18D-3931842FA1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="4" r:id="rId1"/>
     <sheet name="Cashflows" sheetId="1" r:id="rId2"/>
     <sheet name="Deposits" sheetId="2" r:id="rId3"/>
     <sheet name="Actors" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -115,22 +116,49 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est nécessaire de regarder les transactions pour prendre en compte les frais TOB en plus qui ne sont pas renseignés dans les mails. Les vrais montant négociés ne sont également pas rensignés. </t>
+  </si>
+  <si>
+    <t>Cashflows :</t>
+  </si>
+  <si>
+    <t>SPYD.DE</t>
+  </si>
+  <si>
     <t>ETF</t>
   </si>
   <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>SPYD.XETRA</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>€</t>
+    <t xml:space="preserve">SPDR S&amp;P US Consumer Staples Sel Sector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPDR S&amp;P US Consumer Staples Sector </t>
+  </si>
+  <si>
+    <t>SXLP.L</t>
+  </si>
+  <si>
+    <t>NRZ</t>
+  </si>
+  <si>
+    <t>New Residential Investment Corp</t>
+  </si>
+  <si>
+    <t>REIT</t>
   </si>
 </sst>
 </file>
@@ -140,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +178,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,29 +243,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -280,6 +313,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -549,8 +600,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CFE84B9-6FBA-44F2-BB8F-4625F24AB32C}" name="Tableau22" displayName="Tableau22" ref="A1:E5" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:E5" xr:uid="{9CFE84B9-6FBA-44F2-BB8F-4625F24AB32C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CFE84B9-6FBA-44F2-BB8F-4625F24AB32C}" name="Tableau22" displayName="Tableau22" ref="A1:E7" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:E7" xr:uid="{9CFE84B9-6FBA-44F2-BB8F-4625F24AB32C}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{3211FDE4-0370-4815-8589-582BD31797D7}" name="Ticker" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{A537C92E-F761-40D5-BC9C-D6C0C5D3CB67}" name="Title" dataDxfId="16"/>
@@ -563,34 +614,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}" name="Tableau2" displayName="Tableau2" ref="A1:K7" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:K7" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}" name="Tableau2" displayName="Tableau2" ref="A1:K15" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:K15" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{AE978D2E-925C-494B-A0AB-7D954C6CAC08}" name="Date" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{6632C2D8-A2E9-440C-8F23-B57C63F03F47}" name="Ticker" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{3B72D020-B7B5-4B2D-805D-59F224B6279B}" name="Stock" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{C6278D1B-D4A2-46F8-9088-0E9C787D0002}" name="Type" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{E4FDD1C2-ADB1-4DCC-82BA-82622A5CC758}" name="Currency" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{D3831131-146A-4881-AED3-EFF5E684B1EC}" name="Quantity" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{03F47A13-7CF3-4A61-BA94-58631E32C3F5}" name="Price" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0131A9F9-55E2-4977-8FED-0952E5968ADE}" name="Conversion_rate" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{56CDEC6B-94C2-48BB-BFB8-47FF3E3638B4}" name="Price_euro" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{E4FDD1C2-ADB1-4DCC-82BA-82622A5CC758}" name="Currency" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D3831131-146A-4881-AED3-EFF5E684B1EC}" name="Quantity" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{03F47A13-7CF3-4A61-BA94-58631E32C3F5}" name="Price" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0131A9F9-55E2-4977-8FED-0952E5968ADE}" name="Conversion_rate" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{56CDEC6B-94C2-48BB-BFB8-47FF3E3638B4}" name="Price_euro" dataDxfId="3">
       <calculatedColumnFormula>G2/H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2228F4B-A359-4060-B70E-11489BB32C3A}" name="Total_amount" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{C2228F4B-A359-4060-B70E-11489BB32C3A}" name="Total_amount" dataDxfId="2">
       <calculatedColumnFormula>I2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6042320A-3D64-45AD-9A75-C4459CBBB167}" name="Charges" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6042320A-3D64-45AD-9A75-C4459CBBB167}" name="Charges" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}" name="Tableau3" displayName="Tableau3" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}" name="Tableau3" displayName="Tableau3" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF3BC837-CFB4-4088-AB1F-4C5376CB6D12}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BF3BC837-CFB4-4088-AB1F-4C5376CB6D12}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9270F988-6E27-4A9D-802C-8174AF5AC4B8}" name="CashFlow"/>
     <tableColumn id="3" xr3:uid="{A83CD661-CDBB-4E66-85D3-921293F4CA81}" name="Actor">
       <calculatedColumnFormula>Actors!B2</calculatedColumnFormula>
@@ -908,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DD4830-F1A7-405F-9E6E-8521B310D21E}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +982,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -948,61 +999,95 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1015,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E72B03-93C7-4656-97DF-7CD386FE54C1}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1080,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1092,14 +1177,14 @@
         <v>1.1241000000000001</v>
       </c>
       <c r="I2" s="4">
-        <v>106.59</v>
+        <v>106.86</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J6" si="0">I2*F2</f>
-        <v>106.59</v>
+        <v>106.86</v>
       </c>
       <c r="K2" s="4">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -1132,11 +1217,10 @@
         <v>213.73176805407326</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" si="0"/>
-        <v>427.46353610814651</v>
+        <v>428.53</v>
       </c>
       <c r="K3" s="3">
-        <v>1.57</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1165,15 +1249,14 @@
         <v>1.1244000000000001</v>
       </c>
       <c r="I4" s="5">
-        <f>G4/H4</f>
-        <v>184.15154749199573</v>
+        <v>184.61</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>184.15154749199573</v>
+        <v>184.61</v>
       </c>
       <c r="K4" s="3">
-        <v>0.96</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1187,10 +1270,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>29</v>
@@ -1206,28 +1289,27 @@
         <v>13.126279256029191</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" si="0"/>
-        <v>380.66209842484653</v>
+        <v>381.62</v>
       </c>
       <c r="K5" s="3">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>44620</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="B6" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
+      <c r="D6" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6">
         <v>20</v>
@@ -1247,7 +1329,7 @@
         <v>1222.6000000000001</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1264,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
         <v>-1</v>
@@ -1276,16 +1358,305 @@
         <v>1.0825</v>
       </c>
       <c r="I7" s="5">
-        <f>G7/H7</f>
-        <v>87.944572748267902</v>
+        <v>86.92</v>
       </c>
       <c r="J7" s="14">
         <f>I7*F7</f>
-        <v>-87.944572748267902</v>
+        <v>-86.92</v>
       </c>
       <c r="K7" s="3">
-        <v>0.72</v>
-      </c>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44672</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>204.27</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.0853999999999999</v>
+      </c>
+      <c r="I8" s="5">
+        <v>186.57</v>
+      </c>
+      <c r="J8" s="14">
+        <f>I8*F8</f>
+        <v>-186.57</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44673</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>179</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.0804</v>
+      </c>
+      <c r="I9" s="5">
+        <v>162</v>
+      </c>
+      <c r="J9" s="14">
+        <f>I9*F9</f>
+        <v>-162</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44678</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-22</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14.55</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.0733999999999999</v>
+      </c>
+      <c r="I10" s="5">
+        <f>G10/H10</f>
+        <v>13.555058692006709</v>
+      </c>
+      <c r="J10" s="14">
+        <v>-297.47000000000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44711</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.0753999999999999</v>
+      </c>
+      <c r="I11" s="5">
+        <f>G11/H11</f>
+        <v>33.940859215175749</v>
+      </c>
+      <c r="J11" s="14">
+        <v>510.39</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44712</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>166</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.0712999999999999</v>
+      </c>
+      <c r="I12" s="5">
+        <f>G12/H12</f>
+        <v>154.9519275646411</v>
+      </c>
+      <c r="J12" s="12">
+        <v>155.34</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44712</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.071</v>
+      </c>
+      <c r="I13" s="5">
+        <f>G13/H13</f>
+        <v>10.457516339869281</v>
+      </c>
+      <c r="J13" s="14">
+        <v>356.45</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44728</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>155.59</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.0595000000000001</v>
+      </c>
+      <c r="I14" s="5">
+        <v>147.22</v>
+      </c>
+      <c r="J14" s="14">
+        <v>147.22</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44728</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>160.65</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.0596000000000001</v>
+      </c>
+      <c r="I15" s="5">
+        <v>151.99</v>
+      </c>
+      <c r="J15" s="14">
+        <f>I15*F15</f>
+        <v>151.99</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C37C536-1D5B-454E-89E3-D760E16276AA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1757,28 @@
         <v>167</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B8">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B9">
+        <v>167</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -1402,7 +1795,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,4 +1830,33 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE0D1C3-1558-4EA2-95E2-C953C4799FFB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Cashflows.xlsx
+++ b/Cashflows.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Antoine\Documents\Umbrella_Fund\Code_projects\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE5FE7-08E4-4143-A357-6EBBA9B305A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3120F5-3108-46B8-83F1-4D97E6C9B767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEA12E3A-1AF6-4A35-B18D-3931842FA1F4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -152,13 +152,22 @@
     <t>SXLP.L</t>
   </si>
   <si>
-    <t>NRZ</t>
-  </si>
-  <si>
     <t>New Residential Investment Corp</t>
   </si>
   <si>
     <t>REIT</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Rithm Capital Corp</t>
+  </si>
+  <si>
+    <t>RITM</t>
+  </si>
+  <si>
+    <t>0111//2022</t>
   </si>
 </sst>
 </file>
@@ -614,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}" name="Tableau2" displayName="Tableau2" ref="A1:K15" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:K15" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}" name="Tableau2" displayName="Tableau2" ref="A1:K18" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:K18" xr:uid="{6724BDE5-0913-44A8-8F43-9B4E1D0FF011}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{AE978D2E-925C-494B-A0AB-7D954C6CAC08}" name="Date" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{6632C2D8-A2E9-440C-8F23-B57C63F03F47}" name="Ticker" dataDxfId="10"/>
@@ -638,13 +647,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}" name="Tableau3" displayName="Tableau3" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}" name="Tableau3" displayName="Tableau3" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19" xr:uid="{7A7430DF-72B6-4F47-8D37-54BCC63F3642}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BF3BC837-CFB4-4088-AB1F-4C5376CB6D12}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9270F988-6E27-4A9D-802C-8174AF5AC4B8}" name="CashFlow"/>
     <tableColumn id="3" xr3:uid="{A83CD661-CDBB-4E66-85D3-921293F4CA81}" name="Actor">
-      <calculatedColumnFormula>Actors!B2</calculatedColumnFormula>
+      <calculatedColumnFormula>Actors!B3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -652,8 +661,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43646669-5605-4460-B89B-9676B9F5BD0E}" name="Tableau4" displayName="Tableau4" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{43646669-5605-4460-B89B-9676B9F5BD0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43646669-5605-4460-B89B-9676B9F5BD0E}" name="Tableau4" displayName="Tableau4" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{43646669-5605-4460-B89B-9676B9F5BD0E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F5F24221-029E-476B-BEC2-92DEC1844273}" name="Actor"/>
     <tableColumn id="2" xr3:uid="{D774A115-8D64-443E-8932-7C189556B106}" name="ID"/>
@@ -962,7 +971,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="6">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,18 +1079,18 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>27</v>
@@ -1103,7 +1112,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1229,7 @@
         <v>428.53</v>
       </c>
       <c r="K3" s="3">
-        <v>2.4700000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1553,13 +1562,13 @@
         <v>44712</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>27</v>
@@ -1655,7 +1664,116 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44749</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>141</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>142.36000000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <f>I16*F16</f>
+        <v>142.36000000000001</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44749</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>142</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="I17" s="5">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="J17" s="14">
+        <f>I17*F17</f>
+        <v>143.47999999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44749</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/H18</f>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="J18" s="14">
+        <f>I18*F18</f>
+        <v>540.79999999999995</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J20" s="15"/>
     </row>
   </sheetData>
@@ -1669,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C37C536-1D5B-454E-89E3-D760E16276AA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1817,7 @@
         <v>2100</v>
       </c>
       <c r="C2" s="2">
-        <f>Actors!B2</f>
+        <f>Actors!B3</f>
         <v>1</v>
       </c>
     </row>
@@ -1711,7 +1829,7 @@
         <v>400</v>
       </c>
       <c r="C3">
-        <f>Actors!B3</f>
+        <f>Actors!B4</f>
         <v>2</v>
       </c>
     </row>
@@ -1745,7 +1863,7 @@
         <v>6.56</v>
       </c>
       <c r="C6">
-        <f>Actors!B5</f>
+        <f>Actors!B6</f>
         <v>0</v>
       </c>
     </row>
@@ -1779,6 +1897,121 @@
         <v>167</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B10">
+        <v>6.76</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B11">
+        <v>0.04</v>
+      </c>
+      <c r="C11">
+        <f>Actors!B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B12">
+        <v>167</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B13">
+        <v>7.02</v>
+      </c>
+      <c r="C13">
+        <f>Actors!B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B14">
+        <v>167</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B15">
+        <v>7.7</v>
+      </c>
+      <c r="C15">
+        <f>Actors!B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B16">
+        <v>0.7</v>
+      </c>
+      <c r="C16">
+        <f>Actors!B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B17">
+        <v>167</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B18">
+        <v>8.61</v>
+      </c>
+      <c r="C18">
+        <f>Actors!B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>170</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -1792,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D8E3F3-83D3-45C0-AC75-64578AE57609}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,17 +2043,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>

--- a/Cashflows.xlsx
+++ b/Cashflows.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Portfolio"/>
@@ -169,6 +169,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,13 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -226,80 +226,71 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,15 +660,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -686,15 +677,15 @@
       <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -703,15 +694,15 @@
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -720,32 +711,32 @@
       <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="28">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="24">
       <c r="A4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -754,15 +745,15 @@
       <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -771,15 +762,15 @@
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -788,10 +779,10 @@
       <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
         <v>34</v>
       </c>
     </row>
@@ -810,24 +801,24 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="34.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -862,8 +853,8 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="17">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="13">
         <v>44617</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -875,30 +866,30 @@
       <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="11">
         <v>119.82</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="11">
         <v>1.1241</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="11">
         <v>106.86</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="11">
         <f>I2*F2</f>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="11">
         <v>0.87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="17">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="13">
         <v>44617</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -910,10 +901,10 @@
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7">
         <v>2</v>
       </c>
       <c r="G3" s="11">
@@ -925,15 +916,15 @@
       <c r="I3" s="11">
         <f>G3/H3</f>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="11">
         <v>428.53</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="17">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="13">
         <v>44617</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -945,10 +936,10 @@
       <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="11">
@@ -960,15 +951,15 @@
       <c r="I4" s="11">
         <v>184.61</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="11">
         <f>I4*F4</f>
       </c>
       <c r="K4" s="11">
         <v>1.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="17">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="13">
         <v>44617</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -980,10 +971,10 @@
       <c r="D5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7">
         <v>29</v>
       </c>
       <c r="G5" s="11">
@@ -995,50 +986,50 @@
       <c r="I5" s="11">
         <f>G5/H5</f>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="11">
         <v>381.62</v>
       </c>
       <c r="K5" s="11">
         <v>1.84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15">
-      <c r="A6" s="17">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="13">
         <v>44620</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>20</v>
       </c>
       <c r="G6" s="11">
         <v>61.13</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="11">
         <f>G6/H6</f>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="11">
         <f>I6*F6</f>
       </c>
       <c r="K6" s="11">
         <v>4.28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="17">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="13">
         <v>44663</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1050,10 +1041,10 @@
       <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7">
         <v>-1</v>
       </c>
       <c r="G7" s="11">
@@ -1065,15 +1056,15 @@
       <c r="I7" s="11">
         <v>86.92</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="11">
         <f>I7*F7</f>
       </c>
       <c r="K7" s="11">
         <v>0.81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="17">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="13">
         <v>44672</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1085,10 +1076,10 @@
       <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7">
         <v>-1</v>
       </c>
       <c r="G8" s="11">
@@ -1100,15 +1091,15 @@
       <c r="I8" s="11">
         <v>186.57</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="11">
         <f>I8*F8</f>
       </c>
       <c r="K8" s="11">
         <v>1.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="17">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="13">
         <v>44673</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1120,13 +1111,13 @@
       <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7">
         <v>-1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>179</v>
       </c>
       <c r="H9" s="11">
@@ -1135,15 +1126,15 @@
       <c r="I9" s="11">
         <v>162</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="11">
         <f>I9*F9</f>
       </c>
       <c r="K9" s="11">
         <v>1.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="17">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="13">
         <v>44678</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1155,10 +1146,10 @@
       <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7">
         <v>-22</v>
       </c>
       <c r="G10" s="11">
@@ -1170,15 +1161,15 @@
       <c r="I10" s="11">
         <f>G10/H10</f>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="11">
         <v>-297.47</v>
       </c>
       <c r="K10" s="11">
         <v>1.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="17">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+      <c r="A11" s="13">
         <v>44711</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1190,10 +1181,10 @@
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7">
         <v>15</v>
       </c>
       <c r="G11" s="11">
@@ -1205,15 +1196,15 @@
       <c r="I11" s="11">
         <f>G11/H11</f>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="11">
         <v>510.39</v>
       </c>
       <c r="K11" s="11">
         <v>1.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="17">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="13">
         <v>44712</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1225,13 +1216,13 @@
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>166</v>
       </c>
       <c r="H12" s="11">
@@ -1240,15 +1231,15 @@
       <c r="I12" s="11">
         <f>G12/H12</f>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="11">
         <v>155.34</v>
       </c>
       <c r="K12" s="11">
         <v>1.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="17">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="13">
         <v>44712</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1260,10 +1251,10 @@
       <c r="D13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7">
         <v>34</v>
       </c>
       <c r="G13" s="11">
@@ -1275,15 +1266,15 @@
       <c r="I13" s="11">
         <f>G13/H13</f>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="11">
         <v>356.45</v>
       </c>
       <c r="K13" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="17">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="13">
         <v>44728</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1295,10 +1286,10 @@
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="11">
@@ -1310,15 +1301,15 @@
       <c r="I14" s="11">
         <v>147.22</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="11">
         <v>147.22</v>
       </c>
       <c r="K14" s="11">
         <v>1.02</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="17">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="13">
         <v>44728</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1330,10 +1321,10 @@
       <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="11">
@@ -1345,16 +1336,16 @@
       <c r="I15" s="11">
         <v>151.99</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="11">
         <f>I15*F15</f>
       </c>
       <c r="K15" s="11">
         <v>1.03</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="17">
-        <v>44749</v>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="13">
+        <v>44872</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -1365,13 +1356,13 @@
       <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>141</v>
       </c>
       <c r="H16" s="11">
@@ -1380,16 +1371,16 @@
       <c r="I16" s="11">
         <v>142.36</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="11">
         <f>I16*F16</f>
       </c>
       <c r="K16" s="11">
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="17">
-        <v>44749</v>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="13">
+        <v>44872</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -1400,13 +1391,13 @@
       <c r="D17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>142</v>
       </c>
       <c r="H17" s="11">
@@ -1415,73 +1406,73 @@
       <c r="I17" s="11">
         <v>143.48</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="11">
         <f>I17*F17</f>
       </c>
       <c r="K17" s="11">
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33.75">
-      <c r="A18" s="17">
-        <v>44749</v>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="13">
+        <v>44872</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>8</v>
       </c>
       <c r="G18" s="11">
         <v>67.6</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="11">
         <f>G18/H18</f>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="11">
         <f>I18*F18</f>
       </c>
       <c r="K18" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="13"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="13"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1498,23 +1489,23 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1522,10 +1513,10 @@
       <c r="A2" s="10">
         <v>44615</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>2100</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <f>Actors!B3</f>
       </c>
     </row>
@@ -1533,10 +1524,10 @@
       <c r="A3" s="10">
         <v>44615</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>400</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <f>Actors!B4</f>
       </c>
     </row>
@@ -1544,10 +1535,10 @@
       <c r="A4" s="10">
         <v>44622</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>167</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1558,7 +1549,7 @@
       <c r="B5" s="11">
         <v>0.07</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1560,7 @@
       <c r="B6" s="11">
         <v>6.56</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f>Actors!B6</f>
       </c>
     </row>
@@ -1577,10 +1568,10 @@
       <c r="A7" s="10">
         <v>44655</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>167</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1588,10 +1579,10 @@
       <c r="A8" s="10">
         <v>44684</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>167</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1599,10 +1590,10 @@
       <c r="A9" s="10">
         <v>44719</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>167</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1613,7 +1604,7 @@
       <c r="B10" s="11">
         <v>6.76</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1624,7 +1615,7 @@
       <c r="B11" s="11">
         <v>0.04</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <f>Actors!B12</f>
       </c>
     </row>
@@ -1632,10 +1623,10 @@
       <c r="A12" s="10">
         <v>44748</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>167</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1646,7 +1637,7 @@
       <c r="B13" s="11">
         <v>7.02</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <f>Actors!B14</f>
       </c>
     </row>
@@ -1654,10 +1645,10 @@
       <c r="A14" s="10">
         <v>44811</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>167</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1668,7 +1659,7 @@
       <c r="B15" s="11">
         <v>7.7</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <f>Actors!B16</f>
       </c>
     </row>
@@ -1679,7 +1670,7 @@
       <c r="B16" s="11">
         <v>0.7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="7">
         <f>Actors!B18</f>
       </c>
     </row>
@@ -1687,10 +1678,10 @@
       <c r="A17" s="10">
         <v>44838</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>167</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1701,7 +1692,7 @@
       <c r="B18" s="11">
         <v>8.61</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <f>Actors!B19</f>
       </c>
     </row>
@@ -1709,10 +1700,10 @@
       <c r="A19" s="10">
         <v>44866</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>170</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1735,15 +1726,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1751,7 +1742,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1759,7 +1750,7 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1767,7 +1758,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1790,8 +1781,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1801,11 +1792,11 @@
       <c r="B1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
